--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -5,15 +5,30 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pyprojects\dashboards\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jawad Mansoor\Documents\pyProjects\datanalysis\CEM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8758FD62-5FE9-4C60-AA7B-19492B774B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA14A1B-60A3-4C00-966B-E12C99EC13DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{57DA94C6-A58D-4993-A5D8-7D8FEDDFE834}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="7" activeTab="15" xr2:uid="{57DA94C6-A58D-4993-A5D8-7D8FEDDFE834}"/>
   </bookViews>
   <sheets>
-    <sheet name="denied" sheetId="1" r:id="rId1"/>
+    <sheet name="xdsldenied" sheetId="1" r:id="rId1"/>
+    <sheet name="ffdenied" sheetId="5" r:id="rId2"/>
+    <sheet name="voicedenied" sheetId="6" r:id="rId3"/>
+    <sheet name="iptvdenied" sheetId="7" r:id="rId4"/>
+    <sheet name="xdslreg" sheetId="2" r:id="rId5"/>
+    <sheet name="ffreg" sheetId="8" r:id="rId6"/>
+    <sheet name="voicereg" sheetId="9" r:id="rId7"/>
+    <sheet name="iptvreg" sheetId="10" r:id="rId8"/>
+    <sheet name="xdslrepeat" sheetId="4" r:id="rId9"/>
+    <sheet name="ffrepeat" sheetId="11" r:id="rId10"/>
+    <sheet name="voicerepeat" sheetId="12" r:id="rId11"/>
+    <sheet name="iptvrepeat" sheetId="13" r:id="rId12"/>
+    <sheet name="xdslMTTR" sheetId="3" r:id="rId13"/>
+    <sheet name="ffMTTR" sheetId="14" r:id="rId14"/>
+    <sheet name="voiceMTTR" sheetId="15" r:id="rId15"/>
+    <sheet name="iptvMTTR" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="9">
   <si>
     <t>Current</t>
   </si>
@@ -414,8 +429,122 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6642BCA4-9756-45E6-AABF-A96D22281AA6}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:E5" ca="1" si="0">RANDBETWEEN(-6,15)</f>
+        <v>-6</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ca="1" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA35572-E345-4ECD-80DD-B547B049D91C}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,16 +571,20 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <f t="shared" ref="B2:E5" ca="1" si="0">RANDBETWEEN(-6,15)</f>
+        <v>-5</v>
       </c>
       <c r="C2">
-        <v>-7</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>-10</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
       </c>
       <c r="E2">
-        <v>-10</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -459,16 +592,20 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-6</v>
       </c>
       <c r="C3">
-        <v>-4</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-1</v>
       </c>
       <c r="D3">
-        <v>-8</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>-6</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -476,16 +613,20 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>-1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>-8</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>-4</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -493,16 +634,1632 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-5</v>
       </c>
       <c r="C5">
-        <v>-7</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-5</v>
       </c>
       <c r="D5">
-        <v>-8</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
       </c>
       <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E47B24-EEE0-4A8E-A1D3-BA0D3C60E4DC}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:E5" ca="1" si="0">RANDBETWEEN(-6,15)</f>
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ca="1" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="0"/>
         <v>-2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A883A52-82D1-4DC2-A311-93BEAD67AAD6}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:E5" ca="1" si="0">RANDBETWEEN(-6,15)</f>
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ca="1" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="0"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9774F9-20D9-4ABE-9803-D0C1A2C13CCB}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:E5" ca="1" si="0">RANDBETWEEN(-6,15)</f>
+        <v>-2</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ca="1" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="0"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-6</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E470E09-CE5A-4A96-B220-B483AB355B44}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:E5" ca="1" si="0">RANDBETWEEN(-6,15)</f>
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ca="1" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ca="1" si="0"/>
+        <v>-6</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A64449B-7F40-4A22-A310-5CA98CD088C2}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:E5" ca="1" si="0">RANDBETWEEN(-6,15)</f>
+        <v>-1</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ca="1" si="0"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ca="1" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ca="1" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="0"/>
+        <v>-6</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="0"/>
+        <v>-6</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8264BD1-5CD5-49A8-BB84-ED5B79FD2940}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:E5" ca="1" si="0">RANDBETWEEN(-6,15)</f>
+        <v>-5</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ca="1" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A81130-1C0D-4800-AB10-4AD2383C4604}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:E5" ca="1" si="0">RANDBETWEEN(-6,15)</f>
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ca="1" si="0"/>
+        <v>-6</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ca="1" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435D869D-4694-4537-BE4B-C27F7BF17D59}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:E5" ca="1" si="0">RANDBETWEEN(-6,15)</f>
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="0"/>
+        <v>-6</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAB069D-8B7E-446E-B9A6-74C7FF2AF53D}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:E5" ca="1" si="0">RANDBETWEEN(-6,15)</f>
+        <v>-4</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ca="1" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ca="1" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ca="1" si="0"/>
+        <v>-6</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F2DAF62-FBBD-4764-BC64-23FEF4086641}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:E5" ca="1" si="0">RANDBETWEEN(-6,15)</f>
+        <v>-2</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ca="1" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ca="1" si="0"/>
+        <v>-6</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-6</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE9F387-20AC-41E7-84DE-F9F4A594CABF}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:E5" ca="1" si="0">RANDBETWEEN(-6,15)</f>
+        <v>-1</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-6</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1014B023-E8FD-455B-8E84-A7FD6E65A634}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:E5" ca="1" si="0">RANDBETWEEN(-6,15)</f>
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ca="1" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ca="1" si="0"/>
+        <v>-6</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{719A8E74-069B-47D6-9D2F-837371483FAD}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:E5" ca="1" si="0">RANDBETWEEN(-6,15)</f>
+        <v>-3</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ca="1" si="0"/>
+        <v>-6</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8149CE19-62F7-4AA1-AD24-08F974BE6658}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:E5" ca="1" si="0">RANDBETWEEN(-6,15)</f>
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ca="1" si="0"/>
+        <v>-6</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jawad Mansoor\Documents\pyProjects\datanalysis\CEM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA14A1B-60A3-4C00-966B-E12C99EC13DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07A1C42-F308-41D9-A50D-B950DE51F0BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="7" activeTab="15" xr2:uid="{57DA94C6-A58D-4993-A5D8-7D8FEDDFE834}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="7" activeTab="14" xr2:uid="{57DA94C6-A58D-4993-A5D8-7D8FEDDFE834}"/>
   </bookViews>
   <sheets>
     <sheet name="xdsldenied" sheetId="1" r:id="rId1"/>
@@ -429,7 +429,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6642BCA4-9756-45E6-AABF-A96D22281AA6}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -455,20 +457,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:E5" ca="1" si="0">RANDBETWEEN(-6,15)</f>
-        <v>-6</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -476,20 +474,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <f t="shared" ca="1" si="0"/>
-        <v>-4</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -497,20 +491,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
         <v>11</v>
       </c>
-      <c r="C4">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
-      </c>
       <c r="E4">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -518,20 +508,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D5">
         <v>15</v>
       </c>
-      <c r="D5">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
-      </c>
       <c r="E5">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +530,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E5"/>
+      <selection activeCell="B3" sqref="B2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,20 +557,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:E5" ca="1" si="0">RANDBETWEEN(-6,15)</f>
-        <v>-5</v>
+        <v>145</v>
       </c>
       <c r="C2">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D2">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>147</v>
       </c>
       <c r="E2">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -592,20 +574,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <f t="shared" ca="1" si="0"/>
-        <v>-6</v>
+        <v>149</v>
       </c>
       <c r="C3">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>150</v>
       </c>
       <c r="D3">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>151</v>
       </c>
       <c r="E3">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -613,20 +591,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>153</v>
       </c>
       <c r="C4">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="D4">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="E4">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -634,20 +608,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <f t="shared" ca="1" si="0"/>
-        <v>-5</v>
+        <v>157</v>
       </c>
       <c r="C5">
-        <f t="shared" ca="1" si="0"/>
-        <v>-5</v>
+        <v>158</v>
       </c>
       <c r="D5">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="E5">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -660,7 +630,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E5"/>
+      <selection activeCell="B3" sqref="B2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,20 +657,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:E5" ca="1" si="0">RANDBETWEEN(-6,15)</f>
-        <v>3</v>
+        <v>161</v>
       </c>
       <c r="C2">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>162</v>
       </c>
       <c r="D2">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="E2">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -708,20 +674,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>165</v>
       </c>
       <c r="C3">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="D3">
-        <f t="shared" ca="1" si="0"/>
-        <v>-5</v>
+        <v>167</v>
       </c>
       <c r="E3">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -729,20 +691,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="C4">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="D4">
-        <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
+        <v>171</v>
       </c>
       <c r="E4">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -750,20 +708,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>173</v>
       </c>
       <c r="C5">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="D5">
-        <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
+        <v>175</v>
       </c>
       <c r="E5">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -775,7 +729,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A883A52-82D1-4DC2-A311-93BEAD67AAD6}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -801,20 +757,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:E5" ca="1" si="0">RANDBETWEEN(-6,15)</f>
-        <v>4</v>
+        <v>177</v>
       </c>
       <c r="C2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="D2">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>179</v>
       </c>
       <c r="E2">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -822,20 +774,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>181</v>
       </c>
       <c r="C3">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>182</v>
       </c>
       <c r="D3">
-        <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
+        <v>183</v>
       </c>
       <c r="E3">
-        <f t="shared" ca="1" si="0"/>
-        <v>-3</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -843,20 +791,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <f t="shared" ca="1" si="0"/>
-        <v>-5</v>
+        <v>185</v>
       </c>
       <c r="C4">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>186</v>
       </c>
       <c r="D4">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>187</v>
       </c>
       <c r="E4">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -864,20 +808,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>189</v>
       </c>
       <c r="C5">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="D5">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>191</v>
       </c>
       <c r="E5">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -890,7 +830,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,20 +857,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:E5" ca="1" si="0">RANDBETWEEN(-6,15)</f>
-        <v>-2</v>
+        <v>193</v>
       </c>
       <c r="C2">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>194</v>
       </c>
       <c r="D2">
-        <f t="shared" ca="1" si="0"/>
-        <v>-4</v>
+        <v>195</v>
       </c>
       <c r="E2">
-        <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -938,20 +874,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>197</v>
       </c>
       <c r="C3">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>198</v>
       </c>
       <c r="D3">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="E3">
-        <f t="shared" ca="1" si="0"/>
-        <v>-6</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -959,20 +891,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="C4">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>202</v>
       </c>
       <c r="D4">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>203</v>
       </c>
       <c r="E4">
-        <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -980,20 +908,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>205</v>
       </c>
       <c r="C5">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>206</v>
       </c>
       <c r="D5">
-        <f t="shared" ca="1" si="0"/>
-        <v>-6</v>
+        <v>207</v>
       </c>
       <c r="E5">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -1006,7 +930,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E5"/>
+      <selection activeCell="B3" sqref="B2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1033,20 +957,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:E5" ca="1" si="0">RANDBETWEEN(-6,15)</f>
-        <v>5</v>
+        <v>209</v>
       </c>
       <c r="C2">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>210</v>
       </c>
       <c r="D2">
-        <f t="shared" ca="1" si="0"/>
-        <v>-3</v>
+        <v>211</v>
       </c>
       <c r="E2">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1054,20 +974,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>213</v>
       </c>
       <c r="C3">
-        <f t="shared" ca="1" si="0"/>
-        <v>-6</v>
+        <v>214</v>
       </c>
       <c r="D3">
-        <f t="shared" ca="1" si="0"/>
-        <v>-4</v>
+        <v>215</v>
       </c>
       <c r="E3">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1075,20 +991,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>217</v>
       </c>
       <c r="C4">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>218</v>
       </c>
       <c r="D4">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>219</v>
       </c>
       <c r="E4">
-        <f t="shared" ca="1" si="0"/>
-        <v>-4</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1096,20 +1008,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>221</v>
       </c>
       <c r="C5">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>222</v>
       </c>
       <c r="D5">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>223</v>
       </c>
       <c r="E5">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -1121,8 +1029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A64449B-7F40-4A22-A310-5CA98CD088C2}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1149,20 +1057,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:E5" ca="1" si="0">RANDBETWEEN(-6,15)</f>
-        <v>-1</v>
+        <v>225</v>
       </c>
       <c r="C2">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>226</v>
       </c>
       <c r="D2">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>227</v>
       </c>
       <c r="E2">
-        <f t="shared" ca="1" si="0"/>
-        <v>-5</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1170,20 +1074,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <f t="shared" ca="1" si="0"/>
-        <v>-5</v>
+        <v>229</v>
       </c>
       <c r="C3">
-        <f t="shared" ca="1" si="0"/>
-        <v>-3</v>
+        <v>230</v>
       </c>
       <c r="D3">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>231</v>
       </c>
       <c r="E3">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1191,20 +1091,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <f t="shared" ca="1" si="0"/>
-        <v>-6</v>
+        <v>233</v>
       </c>
       <c r="C4">
-        <f t="shared" ca="1" si="0"/>
-        <v>-6</v>
+        <v>234</v>
       </c>
       <c r="D4">
-        <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
+        <v>235</v>
       </c>
       <c r="E4">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1212,20 +1108,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>237</v>
       </c>
       <c r="C5">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>238</v>
       </c>
       <c r="D5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>239</v>
       </c>
       <c r="E5">
-        <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -1237,7 +1129,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8264BD1-5CD5-49A8-BB84-ED5B79FD2940}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1263,20 +1157,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:E5" ca="1" si="0">RANDBETWEEN(-6,15)</f>
-        <v>-5</v>
+        <v>241</v>
       </c>
       <c r="C2">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>242</v>
       </c>
       <c r="D2">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>243</v>
       </c>
       <c r="E2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1284,20 +1174,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>245</v>
       </c>
       <c r="C3">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>246</v>
       </c>
       <c r="D3">
-        <f t="shared" ca="1" si="0"/>
-        <v>-3</v>
+        <v>247</v>
       </c>
       <c r="E3">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1305,20 +1191,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>249</v>
       </c>
       <c r="C4">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>250</v>
       </c>
       <c r="D4">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>251</v>
       </c>
       <c r="E4">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1326,20 +1208,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="C5">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>254</v>
       </c>
       <c r="D5">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="E5">
-        <f t="shared" ca="1" si="0"/>
-        <v>-4</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -1351,7 +1229,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A81130-1C0D-4800-AB10-4AD2383C4604}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1377,20 +1257,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:E5" ca="1" si="0">RANDBETWEEN(-6,15)</f>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C2">
-        <f t="shared" ca="1" si="0"/>
-        <v>-4</v>
+        <v>18</v>
       </c>
       <c r="D2">
-        <f t="shared" ca="1" si="0"/>
-        <v>-6</v>
+        <v>19</v>
       </c>
       <c r="E2">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1398,20 +1274,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C3">
-        <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1419,20 +1291,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C4">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1440,20 +1308,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C5">
-        <f t="shared" ca="1" si="0"/>
-        <v>-4</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <f t="shared" ca="1" si="0"/>
-        <v>-4</v>
+        <v>31</v>
       </c>
       <c r="E5">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1466,7 +1330,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E5"/>
+      <selection activeCell="B2" sqref="B2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1493,20 +1357,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:E5" ca="1" si="0">RANDBETWEEN(-6,15)</f>
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C2">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D2">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E2">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1514,20 +1374,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C3">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D3">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="E3">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1535,20 +1391,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <f t="shared" ca="1" si="0"/>
-        <v>-6</v>
+        <v>41</v>
       </c>
       <c r="C4">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="D4">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E4">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1556,20 +1408,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="C5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="E5">
-        <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1581,7 +1429,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAB069D-8B7E-446E-B9A6-74C7FF2AF53D}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1607,20 +1457,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:E5" ca="1" si="0">RANDBETWEEN(-6,15)</f>
-        <v>-4</v>
+        <v>49</v>
       </c>
       <c r="C2">
-        <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
+        <v>50</v>
       </c>
       <c r="D2">
-        <f t="shared" ca="1" si="0"/>
-        <v>-5</v>
+        <v>51</v>
       </c>
       <c r="E2">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1628,20 +1474,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="C3">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="D3">
-        <f t="shared" ca="1" si="0"/>
-        <v>-6</v>
+        <v>55</v>
       </c>
       <c r="E3">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1649,20 +1491,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="C4">
-        <f t="shared" ca="1" si="0"/>
-        <v>-5</v>
+        <v>58</v>
       </c>
       <c r="D4">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="E4">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1670,20 +1508,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C5">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="D5">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="E5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1696,7 +1530,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E5"/>
+      <selection activeCell="B2" sqref="B2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1723,20 +1557,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:E5" ca="1" si="0">RANDBETWEEN(-6,15)</f>
-        <v>-2</v>
+        <v>65</v>
       </c>
       <c r="C2">
-        <f t="shared" ca="1" si="0"/>
-        <v>-5</v>
+        <v>66</v>
       </c>
       <c r="D2">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>67</v>
       </c>
       <c r="E2">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1744,20 +1574,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <f t="shared" ca="1" si="0"/>
-        <v>-6</v>
+        <v>69</v>
       </c>
       <c r="C3">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="D3">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="E3">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1765,20 +1591,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="C4">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="D4">
-        <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
+        <v>75</v>
       </c>
       <c r="E4">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1786,20 +1608,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <f t="shared" ca="1" si="0"/>
-        <v>-6</v>
+        <v>77</v>
       </c>
       <c r="C5">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="D5">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="E5">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1811,7 +1629,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE9F387-20AC-41E7-84DE-F9F4A594CABF}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B2:E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1837,20 +1657,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:E5" ca="1" si="0">RANDBETWEEN(-6,15)</f>
-        <v>-1</v>
+        <v>81</v>
       </c>
       <c r="C2">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="D2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="E2">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1858,20 +1674,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="C3">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="D3">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="E3">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1879,20 +1691,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="C4">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D4">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="E4">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1900,20 +1708,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <f t="shared" ca="1" si="0"/>
-        <v>-3</v>
+        <v>93</v>
       </c>
       <c r="C5">
-        <f t="shared" ca="1" si="0"/>
-        <v>-6</v>
+        <v>94</v>
       </c>
       <c r="D5">
-        <f t="shared" ca="1" si="0"/>
-        <v>-3</v>
+        <v>95</v>
       </c>
       <c r="E5">
-        <f t="shared" ca="1" si="0"/>
-        <v>-6</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1926,7 +1730,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E5"/>
+      <selection activeCell="B3" sqref="B2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1953,20 +1757,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:E5" ca="1" si="0">RANDBETWEEN(-6,15)</f>
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="C2">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>98</v>
       </c>
       <c r="D2">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="E2">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1974,20 +1774,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <f t="shared" ca="1" si="0"/>
-        <v>-5</v>
+        <v>101</v>
       </c>
       <c r="C3">
-        <f t="shared" ca="1" si="0"/>
-        <v>-6</v>
+        <v>102</v>
       </c>
       <c r="D3">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="E3">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1995,20 +1791,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="C4">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>106</v>
       </c>
       <c r="D4">
-        <f t="shared" ca="1" si="0"/>
-        <v>-4</v>
+        <v>107</v>
       </c>
       <c r="E4">
-        <f t="shared" ca="1" si="0"/>
-        <v>-3</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2016,20 +1808,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="C5">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="D5">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="E5">
-        <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2041,7 +1829,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{719A8E74-069B-47D6-9D2F-837371483FAD}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B2:E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2067,20 +1857,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:E5" ca="1" si="0">RANDBETWEEN(-6,15)</f>
-        <v>-3</v>
+        <v>113</v>
       </c>
       <c r="C2">
-        <f t="shared" ca="1" si="0"/>
-        <v>-4</v>
+        <v>114</v>
       </c>
       <c r="D2">
-        <f t="shared" ca="1" si="0"/>
-        <v>-6</v>
+        <v>115</v>
       </c>
       <c r="E2">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2088,20 +1874,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="C3">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="D3">
-        <f t="shared" ca="1" si="0"/>
-        <v>-4</v>
+        <v>119</v>
       </c>
       <c r="E3">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2109,20 +1891,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>121</v>
       </c>
       <c r="C4">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>122</v>
       </c>
       <c r="D4">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="E4">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2130,20 +1908,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="C5">
-        <f t="shared" ca="1" si="0"/>
-        <v>-5</v>
+        <v>126</v>
       </c>
       <c r="D5">
-        <f t="shared" ca="1" si="0"/>
-        <v>-4</v>
+        <v>127</v>
       </c>
       <c r="E5">
-        <f t="shared" ca="1" si="0"/>
-        <v>-6</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2156,7 +1930,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E5"/>
+      <selection activeCell="B3" sqref="B2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2183,20 +1957,19 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:E5" ca="1" si="0">RANDBETWEEN(-6,15)</f>
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="C2">
-        <f t="shared" ca="1" si="0"/>
-        <v>-6</v>
+        <f>B2+1</f>
+        <v>130</v>
       </c>
       <c r="D2">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <f t="shared" ref="D2:E3" si="0">C2+1</f>
+        <v>131</v>
       </c>
       <c r="E2">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2204,20 +1977,20 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <f>E2+1</f>
+        <v>133</v>
       </c>
       <c r="C3">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <f>B3+1</f>
+        <v>134</v>
       </c>
       <c r="D3">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>135</v>
       </c>
       <c r="E3">
-        <f t="shared" ca="1" si="0"/>
-        <v>-4</v>
+        <f t="shared" si="0"/>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2225,20 +1998,20 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ref="B4:B5" si="1">E3+1</f>
+        <v>137</v>
       </c>
       <c r="C4">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <f t="shared" ref="C4:E5" si="2">B4+1</f>
+        <v>138</v>
       </c>
       <c r="D4">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <f t="shared" si="2"/>
+        <v>139</v>
       </c>
       <c r="E4">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <f t="shared" si="2"/>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2246,20 +2019,20 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <f t="shared" si="1"/>
+        <v>141</v>
       </c>
       <c r="C5">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>142</v>
       </c>
       <c r="D5">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>143</v>
       </c>
       <c r="E5">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
